--- a/data/choix_etudiants.xlsx
+++ b/data/choix_etudiants.xlsx
@@ -28,13 +28,13 @@
     <t>Choix S10</t>
   </si>
   <si>
-    <t>(AAAA, UNED, OLMA, AYEV, DBEJ)</t>
-  </si>
-  <si>
-    <t>(AAAA, TGDD, IKEM, IHET, JDUH)</t>
-  </si>
-  <si>
-    <t>(AAAA, BBBB, BGTE, UJNQ, INEY)</t>
+    <t>AAAA, UNED, OLMA, AYEV, DBEJ</t>
+  </si>
+  <si>
+    <t>AAAA, TGDD, IKEM, IHET, JDUH</t>
+  </si>
+  <si>
+    <t>AAAA, BBBB, BGTE, UJNQ, INEY</t>
   </si>
 </sst>
 </file>
